--- a/BusBookingUsingExcel/Zoho_Articles.xlsx
+++ b/BusBookingUsingExcel/Zoho_Articles.xlsx
@@ -167,1405 +167,1405 @@
     <t>30 December 2019</t>
   </si>
   <si>
-    <t>Sort all even numbers in ascending order and then sort all odd numbers in descending order</t>
+    <t>Zoho Interview Experience | On-Campus</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-on-campus-/</t>
+  </si>
+  <si>
+    <t>26 August 2024</t>
+  </si>
+  <si>
+    <t>Check if given String is Pangram or not</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/pangram-checking/</t>
+  </si>
+  <si>
+    <t>27 March 2025</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-on-campus-2/</t>
+  </si>
+  <si>
+    <t>25 May 2021</t>
+  </si>
+  <si>
+    <t>Zoho Interview | Set 4</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-4/</t>
+  </si>
+  <si>
+    <t>20 October 2024</t>
+  </si>
+  <si>
+    <t>Javascript Program to Sort an array in wave form</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-to-sort-an-array-in-wave-form/</t>
+  </si>
+  <si>
+    <t>17 September 2024</t>
+  </si>
+  <si>
+    <t>Rearrange an array in maximum minimum form using Two Pointer Technique</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-array-maximum-minimum-form/</t>
+  </si>
+  <si>
+    <t>16 July 2024</t>
+  </si>
+  <si>
+    <t>Merge an array of size n into another array of size m+n</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/merge-one-array-of-size-n-into-another-one-of-size-mn/</t>
+  </si>
+  <si>
+    <t>C++ Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/cpp-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
+  </si>
+  <si>
+    <t>30 December 2021</t>
+  </si>
+  <si>
+    <t>Check if a given Year is Leap Year</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/program-check-given-year-leap-year/</t>
+  </si>
+  <si>
+    <t>06 January 2025</t>
+  </si>
+  <si>
+    <t>Remove duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/remove-duplicates-sorted-array/</t>
+  </si>
+  <si>
+    <t>19 November 2024</t>
+  </si>
+  <si>
+    <t>Python Program for Segregate 0s and 1s in an array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python-program-for-segregate-0s-and-1s-in-an-array/</t>
+  </si>
+  <si>
+    <t>17 March 2023</t>
+  </si>
+  <si>
+    <t>Zoho interview experience 2023</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-2023-2/</t>
+  </si>
+  <si>
+    <t>02 February 2024</t>
+  </si>
+  <si>
+    <t>Maximum Subarray Sum - Kadane's Algorithm</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/largest-sum-contiguous-subarray/</t>
+  </si>
+  <si>
+    <t>28 February 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 21 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-21-campus/</t>
+  </si>
+  <si>
+    <t>13 August 2024</t>
+  </si>
+  <si>
+    <t>Find Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/write-a-c-function-to-print-the-middle-of-the-linked-list/</t>
+  </si>
+  <si>
+    <t>04 September 2024</t>
+  </si>
+  <si>
+    <t>C Program For Adding Two Numbers Represented By Linked Lists- Set 2</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/c-program-for-adding-two-numbers-represented-by-linked-lists-set-2/</t>
+  </si>
+  <si>
+    <t>27 March 2023</t>
+  </si>
+  <si>
+    <t>Zoho Off Campus Drive | Set 26 (Software Developer)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-off-campus-drive-set-26-software-developer/</t>
+  </si>
+  <si>
+    <t>04 December 2018</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience For MTS</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-mts/</t>
+  </si>
+  <si>
+    <t>13 May 2024</t>
+  </si>
+  <si>
+    <t>Print a given matrix in spiral form</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-a-given-matrix-in-spiral-form/</t>
+  </si>
+  <si>
+    <t>Javascript Program for Largest Sum Contiguous Subarray</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-for-largest-sum-contiguous-subarray/</t>
+  </si>
+  <si>
+    <t>30 August 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview | Set 6 (On-Campus Drive)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-6-on-campus-drive/</t>
+  </si>
+  <si>
+    <t>Arrange given numbers to form the biggest number</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-an-array-of-numbers-arrange-the-numbers-to-form-the-biggest-number/</t>
+  </si>
+  <si>
+    <t>20 January 2025</t>
+  </si>
+  <si>
+    <t>Java Program For Adding Two Numbers Represented By Linked Lists- Set 2</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-for-adding-two-numbers-represented-by-linked-lists-set-2/</t>
+  </si>
+  <si>
+    <t>03 April 2023</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-2/</t>
+  </si>
+  <si>
+    <t>06 July 2021</t>
+  </si>
+  <si>
+    <t>Zoho Interview Questions</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-questions-and-answers-for-technical-profiles/</t>
+  </si>
+  <si>
+    <t>22 April 2025</t>
+  </si>
+  <si>
+    <t>Python Program to Sort an array in wave form</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python-program-to-sort-an-array-in-wave-form/</t>
+  </si>
+  <si>
+    <t>03 May 2023</t>
+  </si>
+  <si>
+    <t>C++ Program For Adding Two Numbers Represented By Linked Lists- Set 2</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/cpp-program-for-adding-two-numbers-represented-by-linked-lists-set-2/</t>
+  </si>
+  <si>
+    <t>17 August 2023</t>
+  </si>
+  <si>
+    <t>Zoho Interview | Set 2 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-2-campus/</t>
+  </si>
+  <si>
+    <t>08 April 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 17</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-17/</t>
+  </si>
+  <si>
+    <t>Second Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-second-largest-element-array/</t>
+  </si>
+  <si>
+    <t>10 February 2025</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-the-maximum-depth-or-height-of-a-tree/</t>
+  </si>
+  <si>
+    <t>03 April 2025</t>
+  </si>
+  <si>
+    <t>Python Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>31 May 2022</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience (Feb 2021)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-feb-2021/</t>
+  </si>
+  <si>
+    <t>08 June 2021</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience (Chennai) | Jan 2020 Off-Campus</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-chennai-jan-2020-off-campus/</t>
+  </si>
+  <si>
+    <t>24 January 2020</t>
+  </si>
+  <si>
+    <t>C# Program To Check For Balanced Brackets In An Expression (Well-Formedness) Using Stack</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/c-program-to-check-for-balanced-brackets-in-an-expression-well-formedness-using-stack-2/</t>
+  </si>
+  <si>
+    <t>15 December 2021</t>
+  </si>
+  <si>
+    <t>C Program To Find Next Greater Element</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/c-program-to-find-next-greater-element/</t>
+  </si>
+  <si>
+    <t>17 December 2021</t>
+  </si>
+  <si>
+    <t>Java Program to Rotate Matrix Elements</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-to-rotate-matrix-elements-2/</t>
+  </si>
+  <si>
+    <t>21 November 2022</t>
+  </si>
+  <si>
+    <t>C Program To Check For Balanced Brackets In An Expression (Well-Formedness) Using Stack</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/c-program-to-check-for-balanced-brackets-in-an-expression-well-formedness-using-stack/</t>
+  </si>
+  <si>
+    <t>20 April 2023</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 13 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-13-on-campus/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Off Campus for Software Developer Role</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-for-software-developer-role/</t>
+  </si>
+  <si>
+    <t>24 June 2021</t>
+  </si>
+  <si>
+    <t>Zoho Software Developer Interview Experience</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-software-developer-interview-experience/</t>
+  </si>
+  <si>
+    <t>11 December 2019</t>
+  </si>
+  <si>
+    <t>Javascript Program to Rotate Matrix Elements</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-to-rotate-matrix-elements/</t>
+  </si>
+  <si>
+    <t>23 September 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience For Software Developer (Off-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-software-developer-off-campus/</t>
+  </si>
+  <si>
+    <t>19 September 2023</t>
+  </si>
+  <si>
+    <t>Javascript Program To Reverse Words In A Given String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-to-reverse-words-in-a-given-string/</t>
+  </si>
+  <si>
+    <t>C++ Program To Find Next Greater Element</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/cpp-program-to-find-next-greater-element/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 9</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set/</t>
+  </si>
+  <si>
+    <t>Check if given four points form a square</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-given-four-points-form-square/</t>
+  </si>
+  <si>
+    <t>21 March 2025</t>
+  </si>
+  <si>
+    <t>Sorted insert for circular linked list</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sorted-insert-for-circular-linked-list/</t>
+  </si>
+  <si>
+    <t>05 September 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 33 (Off-Campus for Software developer)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-33-off-campus-software-developer/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 28 (Off Campus Drive)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-28-off-campus-drive/</t>
+  </si>
+  <si>
+    <t>13 October 2024</t>
+  </si>
+  <si>
+    <t>Zoho On Campus Drive | Set 25 (Software Developer)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-campus-drive-set-25-software-developer/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 30 (Off-Campus for Software developer)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-30-off-campus-software-developer/</t>
+  </si>
+  <si>
+    <t>Javascript Program To Find Next Greater Element</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-to-find-next-greater-element/</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum : Set 2</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sliding-window-maximum-set-2/</t>
+  </si>
+  <si>
+    <t>08 April 2022</t>
+  </si>
+  <si>
+    <t>Program to convert a given number to words</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/convert-number-to-words/</t>
+  </si>
+  <si>
+    <t>12 November 2024</t>
+  </si>
+  <si>
+    <t>Zoho Corporation | Interview Experience | Software Developer</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-corporation-interview-experience-software-developer-/</t>
+  </si>
+  <si>
+    <t>09 August 2024</t>
+  </si>
+  <si>
+    <t>Merge two sorted linked lists</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/merge-two-sorted-linked-lists/</t>
+  </si>
+  <si>
+    <t>23 December 2024</t>
+  </si>
+  <si>
+    <t>Shortest path in a Binary Maze</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/shortest-path-in-a-binary-maze/</t>
+  </si>
+  <si>
+    <t>17 March 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Off-Campus 2020</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-2020/</t>
+  </si>
+  <si>
+    <t>10 January 2020</t>
+  </si>
+  <si>
+    <t>Look-and-Say Sequence</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/look-and-say-sequence/</t>
+  </si>
+  <si>
+    <t>25 April 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview | Set 3 (Off-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-3-campus/</t>
+  </si>
+  <si>
+    <t>Java Program For Converting Roman Numerals To Decimal Lying Between 1 to 3999</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-for-converting-roman-numerals-to-decimal-lying-between-1-to-3999/</t>
+  </si>
+  <si>
+    <t>29 February 2024</t>
+  </si>
+  <si>
+    <t>C++ Program For Finding The Middle Element Of A Given Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/cpp-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
+  </si>
+  <si>
+    <t>Sort an array in wave form</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sort-array-wave-form-2/</t>
+  </si>
+  <si>
+    <t>12 February 2025</t>
+  </si>
+  <si>
+    <t>Check if a number is Palindrome</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-if-a-number-is-palindrome/</t>
+  </si>
+  <si>
+    <t>15 February 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience for Member Technical Staff Role | Off-Campus August - 2024</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-member-technical-staff-role-off-campus-august-2024/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-7/</t>
+  </si>
+  <si>
+    <t>22 May 2024</t>
+  </si>
+  <si>
+    <t>Reverse a string preserving space positions</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/reverse-string-preserving-space-positions/</t>
+  </si>
+  <si>
+    <t>06 March 2025</t>
+  </si>
+  <si>
+    <t>0/1 Knapsack Problem</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/0-1-knapsack-problem-dp-10/</t>
+  </si>
+  <si>
+    <t>12 March 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 23 (Off-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-23-off-campus/</t>
+  </si>
+  <si>
+    <t>PHP Program to Arrange given numbers to form the biggest number</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/php-program-to-arrange-given-numbers-to-form-the-biggest-number/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 34 (Off Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-34-off-campus/</t>
+  </si>
+  <si>
+    <t>17 October 2019</t>
+  </si>
+  <si>
+    <t>PHP Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/php-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
+  </si>
+  <si>
+    <t>23 July 2024</t>
+  </si>
+  <si>
+    <t>Javascript Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 42(Off-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-42off-campus/</t>
+  </si>
+  <si>
+    <t>06 October 2024</t>
+  </si>
+  <si>
+    <t>Zoho Corporation Recruitment Process</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-corporation-recruitment-process/</t>
+  </si>
+  <si>
+    <t>15 November 2023</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience (Off Campus) - Feb 2024</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-feb-2024/</t>
+  </si>
+  <si>
+    <t>25 September 2024</t>
+  </si>
+  <si>
+    <t>Print all possible words from phone digits</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-possible-words-phone-digits/</t>
+  </si>
+  <si>
+    <t>28 January 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 12 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-12-on-campus/</t>
+  </si>
+  <si>
+    <t>Sort even numbers in order and then odd in descending in an array</t>
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/sort-even-numbers-ascending-order-sort-odd-numbers-descending-order/</t>
   </si>
   <si>
-    <t>23 April 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | On-Campus</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-on-campus-/</t>
-  </si>
-  <si>
-    <t>26 August 2024</t>
-  </si>
-  <si>
-    <t>Check if given String is Pangram or not</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/pangram-checking/</t>
-  </si>
-  <si>
-    <t>27 March 2025</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-on-campus-2/</t>
-  </si>
-  <si>
-    <t>25 May 2021</t>
-  </si>
-  <si>
-    <t>Zoho Interview | Set 4</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-4/</t>
-  </si>
-  <si>
-    <t>20 October 2024</t>
-  </si>
-  <si>
-    <t>Javascript Program to Sort an array in wave form</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-to-sort-an-array-in-wave-form/</t>
-  </si>
-  <si>
-    <t>17 September 2024</t>
-  </si>
-  <si>
-    <t>Rearrange an array in maximum minimum form using Two Pointer Technique</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/rearrange-array-maximum-minimum-form/</t>
-  </si>
-  <si>
-    <t>16 July 2024</t>
-  </si>
-  <si>
-    <t>Merge an array of size n into another array of size m+n</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/merge-one-array-of-size-n-into-another-one-of-size-mn/</t>
-  </si>
-  <si>
-    <t>C++ Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/cpp-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
-  </si>
-  <si>
-    <t>30 December 2021</t>
-  </si>
-  <si>
-    <t>Check if a given Year is Leap Year</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/program-check-given-year-leap-year/</t>
-  </si>
-  <si>
-    <t>06 January 2025</t>
-  </si>
-  <si>
-    <t>Remove duplicates from Sorted Array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/remove-duplicates-sorted-array/</t>
-  </si>
-  <si>
-    <t>19 November 2024</t>
-  </si>
-  <si>
-    <t>Python Program for Segregate 0s and 1s in an array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python-program-for-segregate-0s-and-1s-in-an-array/</t>
-  </si>
-  <si>
-    <t>17 March 2023</t>
-  </si>
-  <si>
-    <t>Zoho interview experience 2023</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-2023-2/</t>
-  </si>
-  <si>
-    <t>02 February 2024</t>
-  </si>
-  <si>
-    <t>Maximum Subarray Sum - Kadane's Algorithm</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/largest-sum-contiguous-subarray/</t>
-  </si>
-  <si>
-    <t>28 February 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 21 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-21-campus/</t>
-  </si>
-  <si>
-    <t>13 August 2024</t>
-  </si>
-  <si>
-    <t>Find Middle of the Linked List</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/write-a-c-function-to-print-the-middle-of-the-linked-list/</t>
-  </si>
-  <si>
-    <t>04 September 2024</t>
-  </si>
-  <si>
-    <t>C Program For Adding Two Numbers Represented By Linked Lists- Set 2</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/c-program-for-adding-two-numbers-represented-by-linked-lists-set-2/</t>
-  </si>
-  <si>
-    <t>27 March 2023</t>
-  </si>
-  <si>
-    <t>Zoho Off Campus Drive | Set 26 (Software Developer)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-off-campus-drive-set-26-software-developer/</t>
-  </si>
-  <si>
-    <t>04 December 2018</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience For MTS</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-mts/</t>
-  </si>
-  <si>
-    <t>13 May 2024</t>
-  </si>
-  <si>
-    <t>Print a given matrix in spiral form</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/print-a-given-matrix-in-spiral-form/</t>
-  </si>
-  <si>
-    <t>Javascript Program for Largest Sum Contiguous Subarray</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-for-largest-sum-contiguous-subarray/</t>
-  </si>
-  <si>
-    <t>30 August 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview | Set 6 (On-Campus Drive)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-6-on-campus-drive/</t>
-  </si>
-  <si>
-    <t>Arrange given numbers to form the biggest number</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/given-an-array-of-numbers-arrange-the-numbers-to-form-the-biggest-number/</t>
-  </si>
-  <si>
-    <t>20 January 2025</t>
-  </si>
-  <si>
-    <t>Java Program For Adding Two Numbers Represented By Linked Lists- Set 2</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-for-adding-two-numbers-represented-by-linked-lists-set-2/</t>
-  </si>
-  <si>
-    <t>03 April 2023</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-2/</t>
-  </si>
-  <si>
-    <t>06 July 2021</t>
-  </si>
-  <si>
-    <t>Zoho Interview Questions</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-questions-and-answers-for-technical-profiles/</t>
-  </si>
-  <si>
-    <t>22 April 2025</t>
-  </si>
-  <si>
-    <t>Python Program to Sort an array in wave form</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python-program-to-sort-an-array-in-wave-form/</t>
-  </si>
-  <si>
-    <t>03 May 2023</t>
-  </si>
-  <si>
-    <t>C++ Program For Adding Two Numbers Represented By Linked Lists- Set 2</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/cpp-program-for-adding-two-numbers-represented-by-linked-lists-set-2/</t>
-  </si>
-  <si>
-    <t>17 August 2023</t>
-  </si>
-  <si>
-    <t>Zoho Interview | Set 2 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-2-campus/</t>
-  </si>
-  <si>
-    <t>08 April 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 17</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-17/</t>
-  </si>
-  <si>
-    <t>Second Largest Element in an Array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-second-largest-element-array/</t>
-  </si>
-  <si>
-    <t>10 February 2025</t>
-  </si>
-  <si>
-    <t>Maximum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-the-maximum-depth-or-height-of-a-tree/</t>
-  </si>
-  <si>
-    <t>03 April 2025</t>
-  </si>
-  <si>
-    <t>Python Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
-  </si>
-  <si>
-    <t>31 May 2022</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience (Feb 2021)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-feb-2021/</t>
-  </si>
-  <si>
-    <t>08 June 2021</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience (Chennai) | Jan 2020 Off-Campus</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-chennai-jan-2020-off-campus/</t>
-  </si>
-  <si>
-    <t>24 January 2020</t>
-  </si>
-  <si>
-    <t>C# Program To Check For Balanced Brackets In An Expression (Well-Formedness) Using Stack</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/c-program-to-check-for-balanced-brackets-in-an-expression-well-formedness-using-stack-2/</t>
-  </si>
-  <si>
-    <t>15 December 2021</t>
-  </si>
-  <si>
-    <t>C Program To Find Next Greater Element</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/c-program-to-find-next-greater-element/</t>
-  </si>
-  <si>
-    <t>17 December 2021</t>
-  </si>
-  <si>
-    <t>Java Program to Rotate Matrix Elements</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-to-rotate-matrix-elements-2/</t>
-  </si>
-  <si>
-    <t>21 November 2022</t>
-  </si>
-  <si>
-    <t>C Program To Check For Balanced Brackets In An Expression (Well-Formedness) Using Stack</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/c-program-to-check-for-balanced-brackets-in-an-expression-well-formedness-using-stack/</t>
-  </si>
-  <si>
-    <t>20 April 2023</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 13 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-13-on-campus/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Off Campus for Software Developer Role</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-for-software-developer-role/</t>
-  </si>
-  <si>
-    <t>24 June 2021</t>
-  </si>
-  <si>
-    <t>Zoho Software Developer Interview Experience</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-software-developer-interview-experience/</t>
-  </si>
-  <si>
-    <t>11 December 2019</t>
-  </si>
-  <si>
-    <t>Javascript Program to Rotate Matrix Elements</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-to-rotate-matrix-elements/</t>
-  </si>
-  <si>
-    <t>23 September 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience For Software Developer (Off-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-software-developer-off-campus/</t>
-  </si>
-  <si>
-    <t>19 September 2023</t>
-  </si>
-  <si>
-    <t>Find Excel column name from a given column number</t>
+    <t>06 May 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience for Software Developer | Off-Campus 2021</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-software-developer-off-campus-2021/</t>
+  </si>
+  <si>
+    <t>16 November 2021</t>
+  </si>
+  <si>
+    <t>Java Program To Find Next Greater Element</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-to-find-next-greater-element/</t>
+  </si>
+  <si>
+    <t>ZOHO Interview Experience (On-campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-on-campus-3/</t>
+  </si>
+  <si>
+    <t>13 February 2024</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/reverse-a-linked-list/</t>
+  </si>
+  <si>
+    <t>18 February 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience for Level 2 Software Developer (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-level-2-software-developer-role-on-campus/</t>
+  </si>
+  <si>
+    <t>21 September 2023</t>
+  </si>
+  <si>
+    <t>Partition a set into two subsets such that the difference of subset sums is minimum</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/partition-a-set-into-two-subsets-such-that-the-difference-of-subset-sums-is-minimum/</t>
+  </si>
+  <si>
+    <t>18 November 2024</t>
+  </si>
+  <si>
+    <t>Find number of days between two given dates</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-number-of-days-between-two-given-dates/</t>
+  </si>
+  <si>
+    <t>20 February 2023</t>
+  </si>
+  <si>
+    <t>Zoho Work Experience as Software Developer</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-work-experience-as-software-developer/</t>
+  </si>
+  <si>
+    <t>21 July 2023</t>
+  </si>
+  <si>
+    <t>Find an element in array such that sum of left array is equal to sum of right array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-element-array-sum-left-array-equal-sum-right-array/</t>
+  </si>
+  <si>
+    <t>14 February 2023</t>
+  </si>
+  <si>
+    <t>Valid Parentheses in an Expression</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-for-balanced-parentheses-in-an-expression/</t>
+  </si>
+  <si>
+    <t>13 January 2025</t>
+  </si>
+  <si>
+    <t>Python3 Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python3-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
+  </si>
+  <si>
+    <t>06 September 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview | Set 5 (On-Campus Drive)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-5-on-campus-drive/</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Arrays Without Extra Space</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>28 December 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience For A Software Developer (Off- Campus) 2024</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-a-software-developer-off-campus-2024/</t>
+  </si>
+  <si>
+    <t>29 September 2024</t>
+  </si>
+  <si>
+    <t>Python Program To Reverse Words In A Given String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python-program-to-reverse-words-in-a-given-string/</t>
+  </si>
+  <si>
+    <t>05 May 2023</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 10 (Off-Campus Drive)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-10-off-campus-drive/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-4/</t>
+  </si>
+  <si>
+    <t>07 July 2023</t>
+  </si>
+  <si>
+    <t>C Program To Reverse Words In A Given String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/c-program-to-reverse-words-in-a-given-string/</t>
+  </si>
+  <si>
+    <t>02 December 2022</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience 2024 |Software Developer | On-Campus</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-2024-software-developer-on-campus-/</t>
+  </si>
+  <si>
+    <t>02 September 2024</t>
+  </si>
+  <si>
+    <t>PHP Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/php-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
+  </si>
+  <si>
+    <t>Find elements which are present in first array and not in second</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-elements-present-first-array-not-second/</t>
+  </si>
+  <si>
+    <t>20 September 2023</t>
+  </si>
+  <si>
+    <t>Rearrange an array in maximum minimum form in O(1) extra space</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-array-maximum-minimum-form-set-2-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>10 July 2024</t>
+  </si>
+  <si>
+    <t>ZOHO Interview Experience for SDE (On-Campus) 2023</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-sde-on-campus-2023/</t>
+  </si>
+  <si>
+    <t>Find duplicates in O(n) time and O(n) extra space</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/</t>
+  </si>
+  <si>
+    <t>24 December 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience (Referral)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-referral/</t>
+  </si>
+  <si>
+    <t>12 May 2020</t>
+  </si>
+  <si>
+    <t>Java Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience for Technical Support Engineer (Off-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-technical-support-engineer-off-campus/</t>
+  </si>
+  <si>
+    <t>C++ Program To Reverse Words In A Given String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/cpp-program-to-reverse-words-in-a-given-string/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 11 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-11-on-campus/</t>
+  </si>
+  <si>
+    <t>Find two prime numbers with given sum</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-two-prime-numbers-with-given-sum/</t>
+  </si>
+  <si>
+    <t>04 December 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 31 (Off Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-31-off-campus/</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/</t>
+  </si>
+  <si>
+    <t>14 January 2025</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Subsequence</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/longest-consecutive-subsequence/</t>
+  </si>
+  <si>
+    <t>31 December 2024</t>
+  </si>
+  <si>
+    <t>Python Program For Finding The Middle Element Of A Given Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
+  </si>
+  <si>
+    <t>22 June 2022</t>
+  </si>
+  <si>
+    <t>Reverse words in a string</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/reverse-words-in-a-given-string/</t>
+  </si>
+  <si>
+    <t>18 March 2025</t>
+  </si>
+  <si>
+    <t>Sort elements by frequency</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sort-elements-by-frequency/</t>
+  </si>
+  <si>
+    <t>04 March 2025</t>
+  </si>
+  <si>
+    <t>Java Program For Finding The Middle Element Of A Given Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
+  </si>
+  <si>
+    <t>11 January 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience For Technical Support Engineer</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-technical-support-engineer/</t>
+  </si>
+  <si>
+    <t>30 September 2024</t>
+  </si>
+  <si>
+    <t>The Celebrity Problem</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/the-celebrity-problem/</t>
+  </si>
+  <si>
+    <t>25 February 2025</t>
+  </si>
+  <si>
+    <t>Javascript Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>Javascript Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
+  </si>
+  <si>
+    <t>Print all Distinct (Unique) Elements in given Array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-distinct-elements-given-integer-array/</t>
+  </si>
+  <si>
+    <t>02 November 2024</t>
+  </si>
+  <si>
+    <t>Segregate 0s and 1s in an array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/</t>
+  </si>
+  <si>
+    <t>07 November 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 15 (Off-Campus Drive)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-15-off-campus-drive/</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given Binary matrix</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-unique-rows/</t>
+  </si>
+  <si>
+    <t>31 January 2023</t>
+  </si>
+  <si>
+    <t>Zoho Interview | Set 8 (Off-Campus Drive for Project Trainee)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-8-off-campus-drive/</t>
+  </si>
+  <si>
+    <t>Zoho On Campus Drive | Set 24 (Software Developer)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-campus-drive-set-24-software-developer/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 20</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-20/</t>
+  </si>
+  <si>
+    <t>Top Zoho Interview Questions - 2024 | Set 1 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-1-campus/</t>
+  </si>
+  <si>
+    <t>24 September 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 9 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience/</t>
+  </si>
+  <si>
+    <t>11 May 2020</t>
+  </si>
+  <si>
+    <t>Java Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
+  </si>
+  <si>
+    <t>21 December 2021</t>
+  </si>
+  <si>
+    <t>Java Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Off-Campus 2021</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-2021/</t>
+  </si>
+  <si>
+    <t>21 January 2021</t>
+  </si>
+  <si>
+    <t>Javascript Program For Adding Two Numbers Represented By Linked Lists- Set 2</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-for-adding-two-numbers-represented-by-linked-lists-set-2/</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum (Maximum of all subarrays of size K)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 19 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-19-on-campus/</t>
+  </si>
+  <si>
+    <t>Algorithm to Solve Sudoku | Sudoku Solver</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sudoku-backtracking-7/</t>
+  </si>
+  <si>
+    <t>31 January 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience for Software Developer</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-software-developer/</t>
+  </si>
+  <si>
+    <t>30 October 2019</t>
+  </si>
+  <si>
+    <t>PHP Program To Find Next Greater Element</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/php-program-to-find-next-greater-element/</t>
+  </si>
+  <si>
+    <t>Zoho Machine learning Interview Experience (Zlabs)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-machine-learning-interview-experience-zlabs/</t>
+  </si>
+  <si>
+    <t>Find index of an extra element present in one sorted array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-index-of-an-extra-element-present-in-one-sorted-array/</t>
+  </si>
+  <si>
+    <t>12 July 2022</t>
+  </si>
+  <si>
+    <t>Python Program For Converting Roman Numerals To Decimal Lying Between 1 to 3999</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python-program-for-converting-roman-numerals-to-decimal-lying-between-1-to-3999/</t>
+  </si>
+  <si>
+    <t>02 May 2023</t>
+  </si>
+  <si>
+    <t>Rotate Square Matrix by 90 Degrees Counterclockwise</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/inplace-rotate-square-matrix-by-90-degrees/</t>
+  </si>
+  <si>
+    <t>20 December 2024</t>
+  </si>
+  <si>
+    <t>Java Program to Arrange given numbers to form the biggest number</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-to-arrange-given-numbers-to-form-the-biggest-number/</t>
+  </si>
+  <si>
+    <t>22 December 2021</t>
+  </si>
+  <si>
+    <t>Check if one string is subsequence of other</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-two-strings-find-first-string-subsequence-second/</t>
+  </si>
+  <si>
+    <t>Python3 Program for Segregate 0s and 1s in an array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python3-program-for-segregate-0s-and-1s-in-an-array/</t>
+  </si>
+  <si>
+    <t>Python Program to Arrange given numbers to form the biggest number</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python-program-to-arrange-given-numbers-to-form-the-biggest-number/</t>
+  </si>
+  <si>
+    <t>PHP Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/php-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Off-Campus January 2021</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-january-2021/</t>
+  </si>
+  <si>
+    <t>23 June 2021</t>
+  </si>
+  <si>
+    <t>Zoho Corporation (Internship cum Offer Experience )</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-corporation-internship-cum-offer-experience/</t>
+  </si>
+  <si>
+    <t>09 October 2019</t>
+  </si>
+  <si>
+    <t>C++ Program For Converting Roman Numerals To Decimal Lying Between 1 to 3999</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/cpp-program-for-converting-roman-numerals-to-decimal-lying-between-1-to-3999/</t>
+  </si>
+  <si>
+    <t>Word Search in a 2D Grid of characters</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/search-a-word-in-a-2d-grid-of-characters/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 27 (Off-Campus for Software Developer)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-27-off-campus-software-developer/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 16</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-16-off-campus-drive/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience For Pre-Sales Engineer</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-pre-sales-engineer/</t>
+  </si>
+  <si>
+    <t>26 February 2024</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence (LIS)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/longest-increasing-subsequence-dp-3/</t>
+  </si>
+  <si>
+    <t>03 March 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview expereince for Full Stack developer (Off-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-expereince-for-full-stack-developer-off-campus/</t>
+  </si>
+  <si>
+    <t>30 April 2024</t>
+  </si>
+  <si>
+    <t>Java Program To Reverse Words In A Given String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-to-reverse-words-in-a-given-string/</t>
+  </si>
+  <si>
+    <t>05 September 2022</t>
+  </si>
+  <si>
+    <t>C Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/c-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
+  </si>
+  <si>
+    <t>Merge two sorted arrays using Priority queue</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/merge-two-sorted-arrays-using-priority-queue/</t>
+  </si>
+  <si>
+    <t>18 October 2022</t>
+  </si>
+  <si>
+    <t>Python Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
+  </si>
+  <si>
+    <t>Zoho Interview | Set 7 (On-Campus Drive)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-7-on-campus-drive/</t>
+  </si>
+  <si>
+    <t>Double the first element and move zero to end</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/double-first-element-move-zero-end/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 18 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-18-on-campus/</t>
+  </si>
+  <si>
+    <t>04 October 2024</t>
+  </si>
+  <si>
+    <t>Program to validate an IP address</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/program-to-validate-an-ip-address/</t>
+  </si>
+  <si>
+    <t>07 March 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Off-Campus November 2020</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-november-2020/</t>
+  </si>
+  <si>
+    <t>14 December 2020</t>
+  </si>
+  <si>
+    <t>C# Program To Reverse Words In A Given String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/c-program-to-reverse-words-in-a-given-string-2/</t>
+  </si>
+  <si>
+    <t>11 July 2022</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Off-Campus for 1.6 years experienced</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-for-1-6-years-experienced/</t>
+  </si>
+  <si>
+    <t>20 January 2020</t>
+  </si>
+  <si>
+    <t>ZOHO Interview Experience (2024) - December | Pooled Off Campus</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-2024-december-pooled-off-campus/</t>
+  </si>
+  <si>
+    <t>Javascript Program To Check For Balanced Brackets In An Expression (Well-Formedness) Using Stack</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-to-check-for-balanced-brackets-in-an-expression-well-formedness-using-stack/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 22 (Off-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-22-off-campus/</t>
+  </si>
+  <si>
+    <t>C++ Program to Sort an array in wave form</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/cpp-program-to-sort-an-array-in-wave-form/</t>
+  </si>
+  <si>
+    <t>Add Two Numbers represented as Linked List using Recursion</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sum-of-two-linked-lists/</t>
+  </si>
+  <si>
+    <t>21 January 2025</t>
+  </si>
+  <si>
+    <t>Efficiently merging two sorted arrays with O(1) extra space</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/efficiently-merging-two-sorted-arrays-with-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>16 May 2024</t>
+  </si>
+  <si>
+    <t>Rotate Matrix Clockwise by 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rotate-matrix-elements/</t>
+  </si>
+  <si>
+    <t>17 October 2024</t>
+  </si>
+  <si>
+    <t>Excel column name from a given column number</t>
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/find-excel-column-name-given-number/</t>
   </si>
   <si>
-    <t>17 August 2022</t>
-  </si>
-  <si>
-    <t>Javascript Program To Reverse Words In A Given String</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-to-reverse-words-in-a-given-string/</t>
-  </si>
-  <si>
-    <t>C++ Program To Find Next Greater Element</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/cpp-program-to-find-next-greater-element/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 9</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set/</t>
-  </si>
-  <si>
-    <t>Check if given four points form a square</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/check-given-four-points-form-square/</t>
-  </si>
-  <si>
-    <t>21 March 2025</t>
-  </si>
-  <si>
-    <t>Sorted insert for circular linked list</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sorted-insert-for-circular-linked-list/</t>
-  </si>
-  <si>
-    <t>05 September 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 33 (Off-Campus for Software developer)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-33-off-campus-software-developer/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 28 (Off Campus Drive)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-28-off-campus-drive/</t>
-  </si>
-  <si>
-    <t>13 October 2024</t>
-  </si>
-  <si>
-    <t>Zoho On Campus Drive | Set 25 (Software Developer)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-campus-drive-set-25-software-developer/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 30 (Off-Campus for Software developer)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-30-off-campus-software-developer/</t>
-  </si>
-  <si>
-    <t>Javascript Program To Find Next Greater Element</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-to-find-next-greater-element/</t>
-  </si>
-  <si>
-    <t>Sliding Window Maximum : Set 2</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sliding-window-maximum-set-2/</t>
-  </si>
-  <si>
-    <t>08 April 2022</t>
-  </si>
-  <si>
-    <t>Program to convert a given number to words</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/convert-number-to-words/</t>
-  </si>
-  <si>
-    <t>12 November 2024</t>
-  </si>
-  <si>
-    <t>Zoho Corporation | Interview Experience | Software Developer</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-corporation-interview-experience-software-developer-/</t>
-  </si>
-  <si>
-    <t>09 August 2024</t>
-  </si>
-  <si>
-    <t>Merge two sorted linked lists</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/merge-two-sorted-linked-lists/</t>
-  </si>
-  <si>
-    <t>23 December 2024</t>
-  </si>
-  <si>
-    <t>Shortest path in a Binary Maze</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/shortest-path-in-a-binary-maze/</t>
-  </si>
-  <si>
-    <t>17 March 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Off-Campus 2020</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-2020/</t>
-  </si>
-  <si>
-    <t>10 January 2020</t>
-  </si>
-  <si>
-    <t>Zoho Interview | Set 3 (Off-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-3-campus/</t>
-  </si>
-  <si>
-    <t>Java Program For Converting Roman Numerals To Decimal Lying Between 1 to 3999</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-for-converting-roman-numerals-to-decimal-lying-between-1-to-3999/</t>
-  </si>
-  <si>
-    <t>29 February 2024</t>
-  </si>
-  <si>
-    <t>C++ Program For Finding The Middle Element Of A Given Linked List</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/cpp-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
-  </si>
-  <si>
-    <t>Sort an array in wave form</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sort-array-wave-form-2/</t>
-  </si>
-  <si>
-    <t>12 February 2025</t>
-  </si>
-  <si>
-    <t>Check if a number is Palindrome</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/check-if-a-number-is-palindrome/</t>
-  </si>
-  <si>
-    <t>15 February 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience for Member Technical Staff Role | Off-Campus August - 2024</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-member-technical-staff-role-off-campus-august-2024/</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-7/</t>
-  </si>
-  <si>
-    <t>22 May 2024</t>
-  </si>
-  <si>
-    <t>Reverse a string preserving space positions</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/reverse-string-preserving-space-positions/</t>
-  </si>
-  <si>
-    <t>06 March 2025</t>
-  </si>
-  <si>
-    <t>0/1 Knapsack Problem</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/0-1-knapsack-problem-dp-10/</t>
-  </si>
-  <si>
-    <t>12 March 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 23 (Off-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-23-off-campus/</t>
-  </si>
-  <si>
-    <t>PHP Program to Arrange given numbers to form the biggest number</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/php-program-to-arrange-given-numbers-to-form-the-biggest-number/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 34 (Off Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-34-off-campus/</t>
-  </si>
-  <si>
-    <t>17 October 2019</t>
-  </si>
-  <si>
-    <t>PHP Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/php-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
-  </si>
-  <si>
-    <t>23 July 2024</t>
-  </si>
-  <si>
-    <t>Javascript Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 42(Off-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-42off-campus/</t>
-  </si>
-  <si>
-    <t>06 October 2024</t>
-  </si>
-  <si>
-    <t>Zoho Corporation Recruitment Process</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-corporation-recruitment-process/</t>
-  </si>
-  <si>
-    <t>15 November 2023</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience (Off Campus) - Feb 2024</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-feb-2024/</t>
-  </si>
-  <si>
-    <t>25 September 2024</t>
-  </si>
-  <si>
-    <t>Print all possible words from phone digits</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-possible-words-phone-digits/</t>
-  </si>
-  <si>
-    <t>28 January 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 12 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-12-on-campus/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience for Software Developer | Off-Campus 2021</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-software-developer-off-campus-2021/</t>
-  </si>
-  <si>
-    <t>16 November 2021</t>
-  </si>
-  <si>
-    <t>Java Program To Find Next Greater Element</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-to-find-next-greater-element/</t>
-  </si>
-  <si>
-    <t>ZOHO Interview Experience (On-campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-on-campus-3/</t>
-  </si>
-  <si>
-    <t>13 February 2024</t>
-  </si>
-  <si>
-    <t>Reverse a Linked List</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/reverse-a-linked-list/</t>
-  </si>
-  <si>
-    <t>18 February 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience for Level 2 Software Developer (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-level-2-software-developer-role-on-campus/</t>
-  </si>
-  <si>
-    <t>21 September 2023</t>
-  </si>
-  <si>
-    <t>Partition a set into two subsets such that the difference of subset sums is minimum</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/partition-a-set-into-two-subsets-such-that-the-difference-of-subset-sums-is-minimum/</t>
-  </si>
-  <si>
-    <t>18 November 2024</t>
-  </si>
-  <si>
-    <t>Find number of days between two given dates</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-number-of-days-between-two-given-dates/</t>
-  </si>
-  <si>
-    <t>20 February 2023</t>
-  </si>
-  <si>
-    <t>Zoho Work Experience as Software Developer</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-work-experience-as-software-developer/</t>
-  </si>
-  <si>
-    <t>21 July 2023</t>
-  </si>
-  <si>
-    <t>Look-and-Say Sequence</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/look-and-say-sequence/</t>
-  </si>
-  <si>
-    <t>04 April 2024</t>
-  </si>
-  <si>
-    <t>Find an element in array such that sum of left array is equal to sum of right array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-element-array-sum-left-array-equal-sum-right-array/</t>
-  </si>
-  <si>
-    <t>14 February 2023</t>
-  </si>
-  <si>
-    <t>Valid Parentheses in an Expression</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/check-for-balanced-parentheses-in-an-expression/</t>
-  </si>
-  <si>
-    <t>13 January 2025</t>
-  </si>
-  <si>
-    <t>Python3 Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python3-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
-  </si>
-  <si>
-    <t>06 September 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview | Set 5 (On-Campus Drive)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-5-on-campus-drive/</t>
-  </si>
-  <si>
-    <t>Merge Two Sorted Arrays Without Extra Space</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/</t>
-  </si>
-  <si>
-    <t>28 December 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience For A Software Developer (Off- Campus) 2024</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-a-software-developer-off-campus-2024/</t>
-  </si>
-  <si>
-    <t>29 September 2024</t>
-  </si>
-  <si>
-    <t>Python Program To Reverse Words In A Given String</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python-program-to-reverse-words-in-a-given-string/</t>
-  </si>
-  <si>
-    <t>05 May 2023</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 10 (Off-Campus Drive)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-10-off-campus-drive/</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-4/</t>
-  </si>
-  <si>
-    <t>07 July 2023</t>
-  </si>
-  <si>
-    <t>C Program To Reverse Words In A Given String</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/c-program-to-reverse-words-in-a-given-string/</t>
-  </si>
-  <si>
-    <t>02 December 2022</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience 2024 |Software Developer | On-Campus</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-2024-software-developer-on-campus-/</t>
-  </si>
-  <si>
-    <t>02 September 2024</t>
-  </si>
-  <si>
-    <t>PHP Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/php-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
-  </si>
-  <si>
-    <t>Find elements which are present in first array and not in second</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-elements-present-first-array-not-second/</t>
-  </si>
-  <si>
-    <t>20 September 2023</t>
-  </si>
-  <si>
-    <t>Rearrange an array in maximum minimum form in O(1) extra space</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/rearrange-array-maximum-minimum-form-set-2-o1-extra-space/</t>
-  </si>
-  <si>
-    <t>10 July 2024</t>
-  </si>
-  <si>
-    <t>ZOHO Interview Experience for SDE (On-Campus) 2023</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-sde-on-campus-2023/</t>
-  </si>
-  <si>
-    <t>Find duplicates in O(n) time and O(n) extra space</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/</t>
-  </si>
-  <si>
-    <t>24 December 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience (Referral)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-referral/</t>
-  </si>
-  <si>
-    <t>12 May 2020</t>
-  </si>
-  <si>
-    <t>Java Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience for Technical Support Engineer (Off-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-technical-support-engineer-off-campus/</t>
-  </si>
-  <si>
-    <t>C++ Program To Reverse Words In A Given String</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/cpp-program-to-reverse-words-in-a-given-string/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 11 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-11-on-campus/</t>
-  </si>
-  <si>
-    <t>Find two prime numbers with given sum</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-two-prime-numbers-with-given-sum/</t>
-  </si>
-  <si>
-    <t>04 December 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 31 (Off Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-31-off-campus/</t>
-  </si>
-  <si>
-    <t>Gas Station</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/</t>
-  </si>
-  <si>
-    <t>14 January 2025</t>
-  </si>
-  <si>
-    <t>Longest Consecutive Subsequence</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/longest-consecutive-subsequence/</t>
-  </si>
-  <si>
-    <t>31 December 2024</t>
-  </si>
-  <si>
-    <t>Python Program For Finding The Middle Element Of A Given Linked List</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
-  </si>
-  <si>
-    <t>22 June 2022</t>
-  </si>
-  <si>
-    <t>Reverse words in a string</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/reverse-words-in-a-given-string/</t>
-  </si>
-  <si>
-    <t>18 March 2025</t>
-  </si>
-  <si>
-    <t>Sort elements by frequency</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sort-elements-by-frequency/</t>
-  </si>
-  <si>
-    <t>04 March 2025</t>
-  </si>
-  <si>
-    <t>Java Program For Finding The Middle Element Of A Given Linked List</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
-  </si>
-  <si>
-    <t>11 January 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience For Technical Support Engineer</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-technical-support-engineer/</t>
-  </si>
-  <si>
-    <t>30 September 2024</t>
-  </si>
-  <si>
-    <t>The Celebrity Problem</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/the-celebrity-problem/</t>
-  </si>
-  <si>
-    <t>25 February 2025</t>
-  </si>
-  <si>
-    <t>Javascript Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
-  </si>
-  <si>
-    <t>Javascript Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
-  </si>
-  <si>
-    <t>Print all Distinct (Unique) Elements in given Array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/print-distinct-elements-given-integer-array/</t>
-  </si>
-  <si>
-    <t>02 November 2024</t>
-  </si>
-  <si>
-    <t>Segregate 0s and 1s in an array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/</t>
-  </si>
-  <si>
-    <t>07 November 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 15 (Off-Campus Drive)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-15-off-campus-drive/</t>
-  </si>
-  <si>
-    <t>Print unique rows in a given Binary matrix</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/print-unique-rows/</t>
-  </si>
-  <si>
-    <t>31 January 2023</t>
-  </si>
-  <si>
-    <t>Zoho Interview | Set 8 (Off-Campus Drive for Project Trainee)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-8-off-campus-drive/</t>
-  </si>
-  <si>
-    <t>Zoho On Campus Drive | Set 24 (Software Developer)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-campus-drive-set-24-software-developer/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 20</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-20/</t>
-  </si>
-  <si>
-    <t>Top Zoho Interview Questions - 2024 | Set 1 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-1-campus/</t>
-  </si>
-  <si>
-    <t>24 September 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 9 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience/</t>
-  </si>
-  <si>
-    <t>11 May 2020</t>
-  </si>
-  <si>
-    <t>Java Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
-  </si>
-  <si>
-    <t>21 December 2021</t>
-  </si>
-  <si>
-    <t>Java Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Off-Campus 2021</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-2021/</t>
-  </si>
-  <si>
-    <t>21 January 2021</t>
-  </si>
-  <si>
-    <t>Javascript Program For Adding Two Numbers Represented By Linked Lists- Set 2</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-for-adding-two-numbers-represented-by-linked-lists-set-2/</t>
-  </si>
-  <si>
-    <t>Sliding Window Maximum (Maximum of all subarrays of size K)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 19 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-19-on-campus/</t>
-  </si>
-  <si>
-    <t>Algorithm to Solve Sudoku | Sudoku Solver</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sudoku-backtracking-7/</t>
-  </si>
-  <si>
-    <t>31 January 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience for Software Developer</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-software-developer/</t>
-  </si>
-  <si>
-    <t>30 October 2019</t>
-  </si>
-  <si>
-    <t>PHP Program To Find Next Greater Element</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/php-program-to-find-next-greater-element/</t>
-  </si>
-  <si>
-    <t>Zoho Machine learning Interview Experience (Zlabs)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-machine-learning-interview-experience-zlabs/</t>
-  </si>
-  <si>
-    <t>Find index of an extra element present in one sorted array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-index-of-an-extra-element-present-in-one-sorted-array/</t>
-  </si>
-  <si>
-    <t>12 July 2022</t>
-  </si>
-  <si>
-    <t>Python Program For Converting Roman Numerals To Decimal Lying Between 1 to 3999</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python-program-for-converting-roman-numerals-to-decimal-lying-between-1-to-3999/</t>
-  </si>
-  <si>
-    <t>02 May 2023</t>
-  </si>
-  <si>
-    <t>Rotate Square Matrix by 90 Degrees Counterclockwise</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/inplace-rotate-square-matrix-by-90-degrees/</t>
-  </si>
-  <si>
-    <t>20 December 2024</t>
-  </si>
-  <si>
-    <t>Java Program to Arrange given numbers to form the biggest number</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-to-arrange-given-numbers-to-form-the-biggest-number/</t>
-  </si>
-  <si>
-    <t>22 December 2021</t>
-  </si>
-  <si>
-    <t>Check if one string is subsequence of other</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/given-two-strings-find-first-string-subsequence-second/</t>
-  </si>
-  <si>
-    <t>Python3 Program for Segregate 0s and 1s in an array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python3-program-for-segregate-0s-and-1s-in-an-array/</t>
-  </si>
-  <si>
-    <t>Python Program to Arrange given numbers to form the biggest number</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python-program-to-arrange-given-numbers-to-form-the-biggest-number/</t>
-  </si>
-  <si>
-    <t>PHP Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/php-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Off-Campus January 2021</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-january-2021/</t>
-  </si>
-  <si>
-    <t>23 June 2021</t>
-  </si>
-  <si>
-    <t>Zoho Corporation (Internship cum Offer Experience )</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-corporation-internship-cum-offer-experience/</t>
-  </si>
-  <si>
-    <t>09 October 2019</t>
-  </si>
-  <si>
-    <t>C++ Program For Converting Roman Numerals To Decimal Lying Between 1 to 3999</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/cpp-program-for-converting-roman-numerals-to-decimal-lying-between-1-to-3999/</t>
-  </si>
-  <si>
-    <t>Word Search in a 2D Grid of characters</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/search-a-word-in-a-2d-grid-of-characters/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 27 (Off-Campus for Software Developer)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-27-off-campus-software-developer/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 16</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-16-off-campus-drive/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience For Pre-Sales Engineer</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-pre-sales-engineer/</t>
-  </si>
-  <si>
-    <t>26 February 2024</t>
-  </si>
-  <si>
-    <t>Longest Increasing Subsequence (LIS)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/longest-increasing-subsequence-dp-3/</t>
-  </si>
-  <si>
-    <t>03 March 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview expereince for Full Stack developer (Off-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-expereince-for-full-stack-developer-off-campus/</t>
-  </si>
-  <si>
-    <t>30 April 2024</t>
-  </si>
-  <si>
-    <t>Java Program To Reverse Words In A Given String</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-to-reverse-words-in-a-given-string/</t>
-  </si>
-  <si>
-    <t>05 September 2022</t>
-  </si>
-  <si>
-    <t>C Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/c-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
-  </si>
-  <si>
-    <t>Merge two sorted arrays using Priority queue</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/merge-two-sorted-arrays-using-priority-queue/</t>
-  </si>
-  <si>
-    <t>18 October 2022</t>
-  </si>
-  <si>
-    <t>Python Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
-  </si>
-  <si>
-    <t>Zoho Interview | Set 7 (On-Campus Drive)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-7-on-campus-drive/</t>
-  </si>
-  <si>
-    <t>Double the first element and move zero to end</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/double-first-element-move-zero-end/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 18 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-18-on-campus/</t>
-  </si>
-  <si>
-    <t>04 October 2024</t>
-  </si>
-  <si>
-    <t>Program to validate an IP address</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/program-to-validate-an-ip-address/</t>
-  </si>
-  <si>
-    <t>07 March 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Off-Campus November 2020</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-november-2020/</t>
-  </si>
-  <si>
-    <t>14 December 2020</t>
-  </si>
-  <si>
-    <t>C# Program To Reverse Words In A Given String</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/c-program-to-reverse-words-in-a-given-string-2/</t>
-  </si>
-  <si>
-    <t>11 July 2022</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Off-Campus for 1.6 years experienced</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-for-1-6-years-experienced/</t>
-  </si>
-  <si>
-    <t>20 January 2020</t>
-  </si>
-  <si>
-    <t>ZOHO Interview Experience (2024) - December | Pooled Off Campus</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-2024-december-pooled-off-campus/</t>
-  </si>
-  <si>
-    <t>Javascript Program To Check For Balanced Brackets In An Expression (Well-Formedness) Using Stack</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-to-check-for-balanced-brackets-in-an-expression-well-formedness-using-stack/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 22 (Off-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-22-off-campus/</t>
-  </si>
-  <si>
-    <t>C++ Program to Sort an array in wave form</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/cpp-program-to-sort-an-array-in-wave-form/</t>
-  </si>
-  <si>
-    <t>Add Two Numbers represented as Linked List using Recursion</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sum-of-two-linked-lists/</t>
-  </si>
-  <si>
-    <t>21 January 2025</t>
-  </si>
-  <si>
-    <t>Efficiently merging two sorted arrays with O(1) extra space</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/efficiently-merging-two-sorted-arrays-with-o1-extra-space/</t>
-  </si>
-  <si>
-    <t>16 May 2024</t>
-  </si>
-  <si>
-    <t>Rotate Matrix Clockwise by 1</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/rotate-matrix-elements/</t>
-  </si>
-  <si>
-    <t>17 October 2024</t>
+    <t>27 April 2025</t>
   </si>
   <si>
     <t>Count frequencies of all elements in array in O(1) extra space and O(n) time</t>
@@ -2064,18 +2064,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -2114,18 +2114,18 @@
         <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2246,18 +2246,18 @@
         <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -2268,18 +2268,18 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
         <v>111</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>112</v>
-      </c>
-      <c r="C39" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40">
@@ -2295,18 +2295,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
         <v>116</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>117</v>
-      </c>
-      <c r="C41" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
         <v>119</v>
@@ -2356,18 +2356,18 @@
         <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" t="s">
         <v>133</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>134</v>
-      </c>
-      <c r="C47" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48">
@@ -2466,18 +2466,18 @@
         <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
         <v>162</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>163</v>
-      </c>
-      <c r="C57" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="58">
@@ -2521,51 +2521,51 @@
         <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" t="s">
         <v>176</v>
       </c>
-      <c r="B62" t="s">
-        <v>177</v>
-      </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
         <v>181</v>
-      </c>
-      <c r="B64" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" t="s">
         <v>183</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>184</v>
-      </c>
-      <c r="C65" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="66">
@@ -2576,73 +2576,73 @@
         <v>186</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
         <v>188</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>189</v>
-      </c>
-      <c r="C67" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" t="s">
         <v>191</v>
       </c>
-      <c r="B68" t="s">
-        <v>192</v>
-      </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" t="s">
         <v>193</v>
       </c>
-      <c r="B69" t="s">
-        <v>194</v>
-      </c>
       <c r="C69" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" t="s">
         <v>198</v>
-      </c>
-      <c r="B71" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" t="s">
         <v>200</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>201</v>
-      </c>
-      <c r="C72" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="73">
@@ -2708,18 +2708,18 @@
         <v>218</v>
       </c>
       <c r="C78" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>219</v>
+      </c>
+      <c r="B79" t="s">
         <v>220</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>221</v>
-      </c>
-      <c r="C79" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="80">
@@ -2730,18 +2730,18 @@
         <v>223</v>
       </c>
       <c r="C80" t="s">
-        <v>224</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" t="s">
         <v>225</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>226</v>
-      </c>
-      <c r="C81" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="82">
@@ -2763,23 +2763,23 @@
         <v>231</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" t="s">
         <v>233</v>
-      </c>
-      <c r="B84" t="s">
-        <v>234</v>
-      </c>
-      <c r="C84" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="B85" t="s">
         <v>235</v>
@@ -2807,29 +2807,29 @@
         <v>241</v>
       </c>
       <c r="C87" t="s">
-        <v>242</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" t="s">
         <v>243</v>
       </c>
-      <c r="B88" t="s">
-        <v>244</v>
-      </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" t="s">
         <v>245</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>246</v>
-      </c>
-      <c r="C89" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="90">
@@ -2851,18 +2851,18 @@
         <v>251</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" t="s">
         <v>253</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>254</v>
-      </c>
-      <c r="C92" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="93">
@@ -2906,18 +2906,18 @@
         <v>265</v>
       </c>
       <c r="C96" t="s">
-        <v>266</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>266</v>
+      </c>
+      <c r="B97" t="s">
         <v>267</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>268</v>
-      </c>
-      <c r="C97" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="98">
@@ -2939,7 +2939,7 @@
         <v>273</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
@@ -3049,18 +3049,18 @@
         <v>302</v>
       </c>
       <c r="C109" t="s">
-        <v>303</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" t="s">
         <v>304</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>305</v>
-      </c>
-      <c r="C110" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="111">
@@ -3093,23 +3093,23 @@
         <v>313</v>
       </c>
       <c r="C113" t="s">
-        <v>314</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>314</v>
+      </c>
+      <c r="C114" t="s">
         <v>315</v>
-      </c>
-      <c r="B114" t="s">
-        <v>316</v>
-      </c>
-      <c r="C114" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>3</v>
+        <v>316</v>
       </c>
       <c r="B115" t="s">
         <v>317</v>
@@ -3137,18 +3137,18 @@
         <v>323</v>
       </c>
       <c r="C117" t="s">
-        <v>324</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>324</v>
+      </c>
+      <c r="B118" t="s">
         <v>325</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>326</v>
-      </c>
-      <c r="C118" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="119">
@@ -3170,18 +3170,18 @@
         <v>331</v>
       </c>
       <c r="C120" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>332</v>
+      </c>
+      <c r="B121" t="s">
         <v>333</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>334</v>
-      </c>
-      <c r="C121" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="122">
@@ -3203,51 +3203,51 @@
         <v>339</v>
       </c>
       <c r="C123" t="s">
-        <v>340</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>340</v>
+      </c>
+      <c r="B124" t="s">
         <v>341</v>
       </c>
-      <c r="B124" t="s">
-        <v>342</v>
-      </c>
       <c r="C124" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>342</v>
+      </c>
+      <c r="B125" t="s">
         <v>343</v>
       </c>
-      <c r="B125" t="s">
-        <v>344</v>
-      </c>
       <c r="C125" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>344</v>
+      </c>
+      <c r="B126" t="s">
         <v>345</v>
       </c>
-      <c r="B126" t="s">
-        <v>346</v>
-      </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>346</v>
+      </c>
+      <c r="B127" t="s">
         <v>347</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>348</v>
-      </c>
-      <c r="C127" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="128">
@@ -3258,18 +3258,18 @@
         <v>350</v>
       </c>
       <c r="C128" t="s">
-        <v>351</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>351</v>
+      </c>
+      <c r="B129" t="s">
         <v>352</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>353</v>
-      </c>
-      <c r="C129" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="130">
@@ -3357,29 +3357,29 @@
         <v>376</v>
       </c>
       <c r="C137" t="s">
-        <v>377</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>377</v>
+      </c>
+      <c r="B138" t="s">
         <v>378</v>
       </c>
-      <c r="B138" t="s">
-        <v>379</v>
-      </c>
       <c r="C138" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>379</v>
+      </c>
+      <c r="B139" t="s">
         <v>380</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>381</v>
-      </c>
-      <c r="C139" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="140">
@@ -3401,18 +3401,18 @@
         <v>386</v>
       </c>
       <c r="C141" t="s">
-        <v>387</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>387</v>
+      </c>
+      <c r="B142" t="s">
         <v>388</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>389</v>
-      </c>
-      <c r="C142" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="143">
@@ -3423,40 +3423,40 @@
         <v>391</v>
       </c>
       <c r="C143" t="s">
-        <v>392</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>392</v>
+      </c>
+      <c r="B144" t="s">
         <v>393</v>
       </c>
-      <c r="B144" t="s">
-        <v>394</v>
-      </c>
       <c r="C144" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>394</v>
+      </c>
+      <c r="B145" t="s">
         <v>395</v>
       </c>
-      <c r="B145" t="s">
-        <v>396</v>
-      </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
+        <v>396</v>
+      </c>
+      <c r="B146" t="s">
         <v>397</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>398</v>
-      </c>
-      <c r="C146" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="147">
@@ -3489,18 +3489,18 @@
         <v>406</v>
       </c>
       <c r="C149" t="s">
-        <v>407</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>407</v>
+      </c>
+      <c r="B150" t="s">
         <v>408</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>409</v>
-      </c>
-      <c r="C150" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="151">
@@ -3511,40 +3511,40 @@
         <v>411</v>
       </c>
       <c r="C151" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>412</v>
+      </c>
+      <c r="B152" t="s">
         <v>413</v>
       </c>
-      <c r="B152" t="s">
-        <v>414</v>
-      </c>
       <c r="C152" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>414</v>
+      </c>
+      <c r="B153" t="s">
         <v>415</v>
       </c>
-      <c r="B153" t="s">
-        <v>416</v>
-      </c>
       <c r="C153" t="s">
-        <v>377</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>416</v>
+      </c>
+      <c r="B154" t="s">
         <v>417</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>418</v>
-      </c>
-      <c r="C154" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="155">
@@ -3566,29 +3566,29 @@
         <v>423</v>
       </c>
       <c r="C156" t="s">
-        <v>424</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>424</v>
+      </c>
+      <c r="B157" t="s">
         <v>425</v>
       </c>
-      <c r="B157" t="s">
-        <v>426</v>
-      </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>426</v>
+      </c>
+      <c r="B158" t="s">
         <v>427</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>428</v>
-      </c>
-      <c r="C158" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="159">
@@ -3632,51 +3632,51 @@
         <v>439</v>
       </c>
       <c r="C162" t="s">
-        <v>440</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>440</v>
+      </c>
+      <c r="B163" t="s">
         <v>441</v>
       </c>
-      <c r="B163" t="s">
-        <v>442</v>
-      </c>
       <c r="C163" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
+        <v>442</v>
+      </c>
+      <c r="B164" t="s">
         <v>443</v>
       </c>
-      <c r="B164" t="s">
-        <v>444</v>
-      </c>
       <c r="C164" t="s">
-        <v>190</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>444</v>
+      </c>
+      <c r="B165" t="s">
         <v>445</v>
       </c>
-      <c r="B165" t="s">
-        <v>446</v>
-      </c>
       <c r="C165" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>446</v>
+      </c>
+      <c r="B166" t="s">
         <v>447</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>448</v>
-      </c>
-      <c r="C166" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="167">
@@ -3698,51 +3698,51 @@
         <v>453</v>
       </c>
       <c r="C168" t="s">
-        <v>454</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>454</v>
+      </c>
+      <c r="B169" t="s">
         <v>455</v>
       </c>
-      <c r="B169" t="s">
-        <v>456</v>
-      </c>
       <c r="C169" t="s">
-        <v>224</v>
+        <v>371</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>456</v>
+      </c>
+      <c r="B170" t="s">
         <v>457</v>
       </c>
-      <c r="B170" t="s">
-        <v>458</v>
-      </c>
       <c r="C170" t="s">
-        <v>374</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>458</v>
+      </c>
+      <c r="B171" t="s">
         <v>459</v>
       </c>
-      <c r="B171" t="s">
-        <v>460</v>
-      </c>
       <c r="C171" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
+        <v>460</v>
+      </c>
+      <c r="B172" t="s">
         <v>461</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>462</v>
-      </c>
-      <c r="C172" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="173">
@@ -3786,18 +3786,18 @@
         <v>473</v>
       </c>
       <c r="C176" t="s">
-        <v>474</v>
+        <v>126</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>474</v>
+      </c>
+      <c r="B177" t="s">
         <v>475</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>476</v>
-      </c>
-      <c r="C177" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="178">
@@ -3808,40 +3808,40 @@
         <v>478</v>
       </c>
       <c r="C178" t="s">
-        <v>479</v>
+        <v>404</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>479</v>
+      </c>
+      <c r="B179" t="s">
         <v>480</v>
       </c>
-      <c r="B179" t="s">
-        <v>481</v>
-      </c>
       <c r="C179" t="s">
-        <v>407</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>481</v>
+      </c>
+      <c r="B180" t="s">
         <v>482</v>
       </c>
-      <c r="B180" t="s">
-        <v>483</v>
-      </c>
       <c r="C180" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>483</v>
+      </c>
+      <c r="B181" t="s">
         <v>484</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>485</v>
-      </c>
-      <c r="C181" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="182">
@@ -3896,51 +3896,51 @@
         <v>499</v>
       </c>
       <c r="C186" t="s">
-        <v>500</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>500</v>
+      </c>
+      <c r="B187" t="s">
         <v>501</v>
       </c>
-      <c r="B187" t="s">
-        <v>502</v>
-      </c>
       <c r="C187" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>502</v>
+      </c>
+      <c r="B188" t="s">
         <v>503</v>
       </c>
-      <c r="B188" t="s">
-        <v>504</v>
-      </c>
       <c r="C188" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>504</v>
+      </c>
+      <c r="B189" t="s">
         <v>505</v>
       </c>
-      <c r="B189" t="s">
-        <v>506</v>
-      </c>
       <c r="C189" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>506</v>
+      </c>
+      <c r="B190" t="s">
         <v>507</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>508</v>
-      </c>
-      <c r="C190" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="191">
@@ -3995,7 +3995,7 @@
         <v>522</v>
       </c>
       <c r="C195" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="196">
@@ -4006,7 +4006,7 @@
         <v>524</v>
       </c>
       <c r="C196" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="197">
@@ -4028,7 +4028,7 @@
         <v>529</v>
       </c>
       <c r="C198" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="199">
@@ -4072,7 +4072,7 @@
         <v>539</v>
       </c>
       <c r="C202" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203">
@@ -4083,7 +4083,7 @@
         <v>541</v>
       </c>
       <c r="C203" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="204">
@@ -4138,7 +4138,7 @@
         <v>554</v>
       </c>
       <c r="C208" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="209">
@@ -4215,7 +4215,7 @@
         <v>573</v>
       </c>
       <c r="C215" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216">
@@ -4226,7 +4226,7 @@
         <v>575</v>
       </c>
       <c r="C216" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="217">

--- a/BusBookingUsingExcel/Zoho_Articles.xlsx
+++ b/BusBookingUsingExcel/Zoho_Articles.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="598">
   <si>
     <t>Title</t>
   </si>
@@ -506,6 +506,15 @@
     <t>24 June 2021</t>
   </si>
   <si>
+    <t>Sorted insert for circular linked list</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sorted-insert-for-circular-linked-list/</t>
+  </si>
+  <si>
+    <t>17 May 2025</t>
+  </si>
+  <si>
     <t>Zoho Software Developer Interview Experience</t>
   </si>
   <si>
@@ -560,694 +569,688 @@
     <t>21 March 2025</t>
   </si>
   <si>
-    <t>Sorted insert for circular linked list</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sorted-insert-for-circular-linked-list/</t>
+    <t>Zoho Interview Experience | Set 33 (Off-Campus for Software developer)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-33-off-campus-software-developer/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 28 (Off Campus Drive)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-28-off-campus-drive/</t>
+  </si>
+  <si>
+    <t>13 October 2024</t>
+  </si>
+  <si>
+    <t>Zoho On Campus Drive | Set 25 (Software Developer)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-campus-drive-set-25-software-developer/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 30 (Off-Campus for Software developer)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-30-off-campus-software-developer/</t>
+  </si>
+  <si>
+    <t>Javascript Program To Find Next Greater Element</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-to-find-next-greater-element/</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum : Set 2</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sliding-window-maximum-set-2/</t>
+  </si>
+  <si>
+    <t>08 April 2022</t>
+  </si>
+  <si>
+    <t>Program to convert a given number to words</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/convert-number-to-words/</t>
+  </si>
+  <si>
+    <t>12 November 2024</t>
+  </si>
+  <si>
+    <t>Zoho Corporation | Interview Experience | Software Developer</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-corporation-interview-experience-software-developer-/</t>
+  </si>
+  <si>
+    <t>09 August 2024</t>
+  </si>
+  <si>
+    <t>Merge two sorted linked lists</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/merge-two-sorted-linked-lists/</t>
+  </si>
+  <si>
+    <t>23 December 2024</t>
+  </si>
+  <si>
+    <t>Shortest path in a Binary Maze</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/shortest-path-in-a-binary-maze/</t>
+  </si>
+  <si>
+    <t>17 March 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Off-Campus 2020</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-2020/</t>
+  </si>
+  <si>
+    <t>10 January 2020</t>
+  </si>
+  <si>
+    <t>Zoho Interview | Set 3 (Off-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-3-campus/</t>
+  </si>
+  <si>
+    <t>Java Program For Converting Roman Numerals To Decimal Lying Between 1 to 3999</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-for-converting-roman-numerals-to-decimal-lying-between-1-to-3999/</t>
+  </si>
+  <si>
+    <t>29 February 2024</t>
+  </si>
+  <si>
+    <t>C++ Program For Finding The Middle Element Of A Given Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/cpp-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
+  </si>
+  <si>
+    <t>Sort an array in wave form</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sort-array-wave-form-2/</t>
+  </si>
+  <si>
+    <t>12 February 2025</t>
+  </si>
+  <si>
+    <t>Check if a number is Palindrome</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-if-a-number-is-palindrome/</t>
+  </si>
+  <si>
+    <t>15 February 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience for Member Technical Staff Role | Off-Campus August - 2024</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-member-technical-staff-role-off-campus-august-2024/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-7/</t>
+  </si>
+  <si>
+    <t>22 May 2024</t>
+  </si>
+  <si>
+    <t>Reverse a string preserving space positions</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/reverse-string-preserving-space-positions/</t>
+  </si>
+  <si>
+    <t>06 March 2025</t>
+  </si>
+  <si>
+    <t>0/1 Knapsack Problem</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/0-1-knapsack-problem-dp-10/</t>
+  </si>
+  <si>
+    <t>12 March 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 23 (Off-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-23-off-campus/</t>
+  </si>
+  <si>
+    <t>PHP Program to Arrange given numbers to form the biggest number</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/php-program-to-arrange-given-numbers-to-form-the-biggest-number/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 34 (Off Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-34-off-campus/</t>
+  </si>
+  <si>
+    <t>17 October 2019</t>
+  </si>
+  <si>
+    <t>PHP Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/php-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
+  </si>
+  <si>
+    <t>23 July 2024</t>
+  </si>
+  <si>
+    <t>Javascript Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
+  </si>
+  <si>
+    <t>Look-and-Say Sequence</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/look-and-say-sequence/</t>
+  </si>
+  <si>
+    <t>10 May 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 42(Off-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-42off-campus/</t>
+  </si>
+  <si>
+    <t>06 October 2024</t>
+  </si>
+  <si>
+    <t>Zoho Corporation Recruitment Process</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-corporation-recruitment-process/</t>
+  </si>
+  <si>
+    <t>15 November 2023</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience (Off Campus) - Feb 2024</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-feb-2024/</t>
+  </si>
+  <si>
+    <t>25 September 2024</t>
+  </si>
+  <si>
+    <t>Print all possible words from phone digits</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-possible-words-phone-digits/</t>
+  </si>
+  <si>
+    <t>28 January 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 12 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-12-on-campus/</t>
+  </si>
+  <si>
+    <t>Sort even numbers in order and then odd in descending in an array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sort-even-numbers-ascending-order-sort-odd-numbers-descending-order/</t>
+  </si>
+  <si>
+    <t>06 May 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience for Software Developer | Off-Campus 2021</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-software-developer-off-campus-2021/</t>
+  </si>
+  <si>
+    <t>16 November 2021</t>
+  </si>
+  <si>
+    <t>Java Program To Find Next Greater Element</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-to-find-next-greater-element/</t>
+  </si>
+  <si>
+    <t>ZOHO Interview Experience (On-campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-on-campus-3/</t>
+  </si>
+  <si>
+    <t>13 February 2024</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/reverse-a-linked-list/</t>
+  </si>
+  <si>
+    <t>18 February 2025</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience for Level 2 Software Developer (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-level-2-software-developer-role-on-campus/</t>
+  </si>
+  <si>
+    <t>21 September 2023</t>
+  </si>
+  <si>
+    <t>Partition a set into two subsets such that the difference of subset sums is minimum</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/partition-a-set-into-two-subsets-such-that-the-difference-of-subset-sums-is-minimum/</t>
+  </si>
+  <si>
+    <t>18 November 2024</t>
+  </si>
+  <si>
+    <t>Find number of days between two given dates</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-number-of-days-between-two-given-dates/</t>
+  </si>
+  <si>
+    <t>20 February 2023</t>
+  </si>
+  <si>
+    <t>Zoho Work Experience as Software Developer</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-work-experience-as-software-developer/</t>
+  </si>
+  <si>
+    <t>21 July 2023</t>
+  </si>
+  <si>
+    <t>Find an element in array such that sum of left array is equal to sum of right array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-element-array-sum-left-array-equal-sum-right-array/</t>
+  </si>
+  <si>
+    <t>14 February 2023</t>
+  </si>
+  <si>
+    <t>Valid Parentheses in an Expression</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-for-balanced-parentheses-in-an-expression/</t>
+  </si>
+  <si>
+    <t>13 January 2025</t>
+  </si>
+  <si>
+    <t>Python3 Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python3-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
+  </si>
+  <si>
+    <t>06 September 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview | Set 5 (On-Campus Drive)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-5-on-campus-drive/</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Arrays Without Extra Space</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>28 December 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience For A Software Developer (Off- Campus) 2024</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-a-software-developer-off-campus-2024/</t>
+  </si>
+  <si>
+    <t>29 September 2024</t>
+  </si>
+  <si>
+    <t>Python Program To Reverse Words In A Given String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python-program-to-reverse-words-in-a-given-string/</t>
+  </si>
+  <si>
+    <t>05 May 2023</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 10 (Off-Campus Drive)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-10-off-campus-drive/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-4/</t>
+  </si>
+  <si>
+    <t>07 July 2023</t>
+  </si>
+  <si>
+    <t>C Program To Reverse Words In A Given String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/c-program-to-reverse-words-in-a-given-string/</t>
+  </si>
+  <si>
+    <t>02 December 2022</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience 2024 |Software Developer | On-Campus</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-2024-software-developer-on-campus-/</t>
+  </si>
+  <si>
+    <t>02 September 2024</t>
+  </si>
+  <si>
+    <t>PHP Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/php-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
+  </si>
+  <si>
+    <t>Find elements which are present in first array and not in second</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-elements-present-first-array-not-second/</t>
+  </si>
+  <si>
+    <t>20 September 2023</t>
+  </si>
+  <si>
+    <t>Rearrange an array in maximum minimum form in O(1) extra space</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-array-maximum-minimum-form-set-2-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>10 July 2024</t>
+  </si>
+  <si>
+    <t>ZOHO Interview Experience for SDE (On-Campus) 2023</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-sde-on-campus-2023/</t>
+  </si>
+  <si>
+    <t>Find duplicates in O(n) time and O(n) extra space</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/</t>
+  </si>
+  <si>
+    <t>24 December 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience (Referral)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-referral/</t>
+  </si>
+  <si>
+    <t>12 May 2020</t>
+  </si>
+  <si>
+    <t>Java Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience for Technical Support Engineer (Off-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-technical-support-engineer-off-campus/</t>
+  </si>
+  <si>
+    <t>C++ Program To Reverse Words In A Given String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/cpp-program-to-reverse-words-in-a-given-string/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 11 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-11-on-campus/</t>
+  </si>
+  <si>
+    <t>Find two prime numbers with given sum</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-two-prime-numbers-with-given-sum/</t>
+  </si>
+  <si>
+    <t>04 December 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 31 (Off Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-31-off-campus/</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/</t>
+  </si>
+  <si>
+    <t>14 January 2025</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Subsequence</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/longest-consecutive-subsequence/</t>
+  </si>
+  <si>
+    <t>31 December 2024</t>
+  </si>
+  <si>
+    <t>Python Program For Finding The Middle Element Of A Given Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/python-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
+  </si>
+  <si>
+    <t>22 June 2022</t>
+  </si>
+  <si>
+    <t>Reverse words in a string</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/reverse-words-in-a-given-string/</t>
+  </si>
+  <si>
+    <t>18 March 2025</t>
+  </si>
+  <si>
+    <t>Sort elements by frequency</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sort-elements-by-frequency/</t>
+  </si>
+  <si>
+    <t>04 March 2025</t>
+  </si>
+  <si>
+    <t>Java Program For Finding The Middle Element Of A Given Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
+  </si>
+  <si>
+    <t>11 January 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience For Technical Support Engineer</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-technical-support-engineer/</t>
+  </si>
+  <si>
+    <t>30 September 2024</t>
+  </si>
+  <si>
+    <t>The Celebrity Problem</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/the-celebrity-problem/</t>
+  </si>
+  <si>
+    <t>25 February 2025</t>
+  </si>
+  <si>
+    <t>Javascript Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
+  </si>
+  <si>
+    <t>Javascript Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
+  </si>
+  <si>
+    <t>Print all Distinct (Unique) Elements in given Array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-distinct-elements-given-integer-array/</t>
+  </si>
+  <si>
+    <t>02 November 2024</t>
+  </si>
+  <si>
+    <t>Segregate 0s and 1s in an array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/</t>
+  </si>
+  <si>
+    <t>07 November 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 15 (Off-Campus Drive)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-15-off-campus-drive/</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given Binary matrix</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-unique-rows/</t>
+  </si>
+  <si>
+    <t>31 January 2023</t>
+  </si>
+  <si>
+    <t>Zoho Interview | Set 8 (Off-Campus Drive for Project Trainee)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-8-off-campus-drive/</t>
+  </si>
+  <si>
+    <t>Zoho On Campus Drive | Set 24 (Software Developer)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-campus-drive-set-24-software-developer/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 20</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-20/</t>
+  </si>
+  <si>
+    <t>Top Zoho Interview Questions - 2024 | Set 1 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-set-1-campus/</t>
+  </si>
+  <si>
+    <t>24 September 2024</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Set 9 (On-Campus)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience/</t>
+  </si>
+  <si>
+    <t>11 May 2020</t>
+  </si>
+  <si>
+    <t>Java Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
+  </si>
+  <si>
+    <t>21 December 2021</t>
+  </si>
+  <si>
+    <t>Java Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/java-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
+  </si>
+  <si>
+    <t>Zoho Interview Experience | Off-Campus 2021</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-2021/</t>
+  </si>
+  <si>
+    <t>21 January 2021</t>
+  </si>
+  <si>
+    <t>Javascript Program For Adding Two Numbers Represented By Linked Lists- Set 2</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/javascript-program-for-adding-two-numbers-represented-by-linked-lists-set-2/</t>
   </si>
   <si>
     <t>05 September 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 33 (Off-Campus for Software developer)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-33-off-campus-software-developer/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 28 (Off Campus Drive)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-28-off-campus-drive/</t>
-  </si>
-  <si>
-    <t>13 October 2024</t>
-  </si>
-  <si>
-    <t>Zoho On Campus Drive | Set 25 (Software Developer)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-campus-drive-set-25-software-developer/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 30 (Off-Campus for Software developer)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-30-off-campus-software-developer/</t>
-  </si>
-  <si>
-    <t>Javascript Program To Find Next Greater Element</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-to-find-next-greater-element/</t>
-  </si>
-  <si>
-    <t>Sliding Window Maximum : Set 2</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sliding-window-maximum-set-2/</t>
-  </si>
-  <si>
-    <t>08 April 2022</t>
-  </si>
-  <si>
-    <t>Program to convert a given number to words</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/convert-number-to-words/</t>
-  </si>
-  <si>
-    <t>12 November 2024</t>
-  </si>
-  <si>
-    <t>Zoho Corporation | Interview Experience | Software Developer</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-corporation-interview-experience-software-developer-/</t>
-  </si>
-  <si>
-    <t>09 August 2024</t>
-  </si>
-  <si>
-    <t>Merge two sorted linked lists</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/merge-two-sorted-linked-lists/</t>
-  </si>
-  <si>
-    <t>23 December 2024</t>
-  </si>
-  <si>
-    <t>Shortest path in a Binary Maze</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/shortest-path-in-a-binary-maze/</t>
-  </si>
-  <si>
-    <t>17 March 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Off-Campus 2020</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-2020/</t>
-  </si>
-  <si>
-    <t>10 January 2020</t>
-  </si>
-  <si>
-    <t>Look-and-Say Sequence</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/look-and-say-sequence/</t>
-  </si>
-  <si>
-    <t>25 April 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview | Set 3 (Off-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-3-campus/</t>
-  </si>
-  <si>
-    <t>Java Program For Converting Roman Numerals To Decimal Lying Between 1 to 3999</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-for-converting-roman-numerals-to-decimal-lying-between-1-to-3999/</t>
-  </si>
-  <si>
-    <t>29 February 2024</t>
-  </si>
-  <si>
-    <t>C++ Program For Finding The Middle Element Of A Given Linked List</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/cpp-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
-  </si>
-  <si>
-    <t>Sort an array in wave form</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sort-array-wave-form-2/</t>
-  </si>
-  <si>
-    <t>12 February 2025</t>
-  </si>
-  <si>
-    <t>Check if a number is Palindrome</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/check-if-a-number-is-palindrome/</t>
-  </si>
-  <si>
-    <t>15 February 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience for Member Technical Staff Role | Off-Campus August - 2024</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-member-technical-staff-role-off-campus-august-2024/</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-7/</t>
-  </si>
-  <si>
-    <t>22 May 2024</t>
-  </si>
-  <si>
-    <t>Reverse a string preserving space positions</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/reverse-string-preserving-space-positions/</t>
-  </si>
-  <si>
-    <t>06 March 2025</t>
-  </si>
-  <si>
-    <t>0/1 Knapsack Problem</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/0-1-knapsack-problem-dp-10/</t>
-  </si>
-  <si>
-    <t>12 March 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 23 (Off-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-23-off-campus/</t>
-  </si>
-  <si>
-    <t>PHP Program to Arrange given numbers to form the biggest number</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/php-program-to-arrange-given-numbers-to-form-the-biggest-number/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 34 (Off Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-34-off-campus/</t>
-  </si>
-  <si>
-    <t>17 October 2019</t>
-  </si>
-  <si>
-    <t>PHP Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/php-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
-  </si>
-  <si>
-    <t>23 July 2024</t>
-  </si>
-  <si>
-    <t>Javascript Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 42(Off-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-42off-campus/</t>
-  </si>
-  <si>
-    <t>06 October 2024</t>
-  </si>
-  <si>
-    <t>Zoho Corporation Recruitment Process</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-corporation-recruitment-process/</t>
-  </si>
-  <si>
-    <t>15 November 2023</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience (Off Campus) - Feb 2024</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-feb-2024/</t>
-  </si>
-  <si>
-    <t>25 September 2024</t>
-  </si>
-  <si>
-    <t>Print all possible words from phone digits</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-possible-words-phone-digits/</t>
-  </si>
-  <si>
-    <t>28 January 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 12 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-12-on-campus/</t>
-  </si>
-  <si>
-    <t>Sort even numbers in order and then odd in descending in an array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sort-even-numbers-ascending-order-sort-odd-numbers-descending-order/</t>
-  </si>
-  <si>
-    <t>06 May 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience for Software Developer | Off-Campus 2021</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-software-developer-off-campus-2021/</t>
-  </si>
-  <si>
-    <t>16 November 2021</t>
-  </si>
-  <si>
-    <t>Java Program To Find Next Greater Element</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-to-find-next-greater-element/</t>
-  </si>
-  <si>
-    <t>ZOHO Interview Experience (On-campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-on-campus-3/</t>
-  </si>
-  <si>
-    <t>13 February 2024</t>
-  </si>
-  <si>
-    <t>Reverse a Linked List</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/reverse-a-linked-list/</t>
-  </si>
-  <si>
-    <t>18 February 2025</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience for Level 2 Software Developer (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-level-2-software-developer-role-on-campus/</t>
-  </si>
-  <si>
-    <t>21 September 2023</t>
-  </si>
-  <si>
-    <t>Partition a set into two subsets such that the difference of subset sums is minimum</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/partition-a-set-into-two-subsets-such-that-the-difference-of-subset-sums-is-minimum/</t>
-  </si>
-  <si>
-    <t>18 November 2024</t>
-  </si>
-  <si>
-    <t>Find number of days between two given dates</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-number-of-days-between-two-given-dates/</t>
-  </si>
-  <si>
-    <t>20 February 2023</t>
-  </si>
-  <si>
-    <t>Zoho Work Experience as Software Developer</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-work-experience-as-software-developer/</t>
-  </si>
-  <si>
-    <t>21 July 2023</t>
-  </si>
-  <si>
-    <t>Find an element in array such that sum of left array is equal to sum of right array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-element-array-sum-left-array-equal-sum-right-array/</t>
-  </si>
-  <si>
-    <t>14 February 2023</t>
-  </si>
-  <si>
-    <t>Valid Parentheses in an Expression</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/check-for-balanced-parentheses-in-an-expression/</t>
-  </si>
-  <si>
-    <t>13 January 2025</t>
-  </si>
-  <si>
-    <t>Python3 Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python3-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
-  </si>
-  <si>
-    <t>06 September 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview | Set 5 (On-Campus Drive)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-5-on-campus-drive/</t>
-  </si>
-  <si>
-    <t>Merge Two Sorted Arrays Without Extra Space</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/</t>
-  </si>
-  <si>
-    <t>28 December 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience For A Software Developer (Off- Campus) 2024</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-a-software-developer-off-campus-2024/</t>
-  </si>
-  <si>
-    <t>29 September 2024</t>
-  </si>
-  <si>
-    <t>Python Program To Reverse Words In A Given String</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python-program-to-reverse-words-in-a-given-string/</t>
-  </si>
-  <si>
-    <t>05 May 2023</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 10 (Off-Campus Drive)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-10-off-campus-drive/</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-4/</t>
-  </si>
-  <si>
-    <t>07 July 2023</t>
-  </si>
-  <si>
-    <t>C Program To Reverse Words In A Given String</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/c-program-to-reverse-words-in-a-given-string/</t>
-  </si>
-  <si>
-    <t>02 December 2022</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience 2024 |Software Developer | On-Campus</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-2024-software-developer-on-campus-/</t>
-  </si>
-  <si>
-    <t>02 September 2024</t>
-  </si>
-  <si>
-    <t>PHP Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/php-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
-  </si>
-  <si>
-    <t>Find elements which are present in first array and not in second</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-elements-present-first-array-not-second/</t>
-  </si>
-  <si>
-    <t>20 September 2023</t>
-  </si>
-  <si>
-    <t>Rearrange an array in maximum minimum form in O(1) extra space</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/rearrange-array-maximum-minimum-form-set-2-o1-extra-space/</t>
-  </si>
-  <si>
-    <t>10 July 2024</t>
-  </si>
-  <si>
-    <t>ZOHO Interview Experience for SDE (On-Campus) 2023</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-sde-on-campus-2023/</t>
-  </si>
-  <si>
-    <t>Find duplicates in O(n) time and O(n) extra space</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/</t>
-  </si>
-  <si>
-    <t>24 December 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience (Referral)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-referral/</t>
-  </si>
-  <si>
-    <t>12 May 2020</t>
-  </si>
-  <si>
-    <t>Java Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience for Technical Support Engineer (Off-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-technical-support-engineer-off-campus/</t>
-  </si>
-  <si>
-    <t>C++ Program To Reverse Words In A Given String</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/cpp-program-to-reverse-words-in-a-given-string/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 11 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-11-on-campus/</t>
-  </si>
-  <si>
-    <t>Find two prime numbers with given sum</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-two-prime-numbers-with-given-sum/</t>
-  </si>
-  <si>
-    <t>04 December 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 31 (Off Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-31-off-campus/</t>
-  </si>
-  <si>
-    <t>Gas Station</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/</t>
-  </si>
-  <si>
-    <t>14 January 2025</t>
-  </si>
-  <si>
-    <t>Longest Consecutive Subsequence</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/longest-consecutive-subsequence/</t>
-  </si>
-  <si>
-    <t>31 December 2024</t>
-  </si>
-  <si>
-    <t>Python Program For Finding The Middle Element Of A Given Linked List</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/python-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
-  </si>
-  <si>
-    <t>22 June 2022</t>
-  </si>
-  <si>
-    <t>Reverse words in a string</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/reverse-words-in-a-given-string/</t>
-  </si>
-  <si>
-    <t>18 March 2025</t>
-  </si>
-  <si>
-    <t>Sort elements by frequency</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/sort-elements-by-frequency/</t>
-  </si>
-  <si>
-    <t>04 March 2025</t>
-  </si>
-  <si>
-    <t>Java Program For Finding The Middle Element Of A Given Linked List</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-for-finding-the-middle-element-of-a-given-linked-list/</t>
-  </si>
-  <si>
-    <t>11 January 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience For Technical Support Engineer</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-for-technical-support-engineer/</t>
-  </si>
-  <si>
-    <t>30 September 2024</t>
-  </si>
-  <si>
-    <t>The Celebrity Problem</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/the-celebrity-problem/</t>
-  </si>
-  <si>
-    <t>25 February 2025</t>
-  </si>
-  <si>
-    <t>Javascript Program For Rearranging An Array In Maximum Minimum Form - Set 2 (O(1) extra space)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-for-rearranging-an-array-in-maximum-minimum-form-set-2-o1-extra-space/</t>
-  </si>
-  <si>
-    <t>Javascript Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
-  </si>
-  <si>
-    <t>Print all Distinct (Unique) Elements in given Array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/print-distinct-elements-given-integer-array/</t>
-  </si>
-  <si>
-    <t>02 November 2024</t>
-  </si>
-  <si>
-    <t>Segregate 0s and 1s in an array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/</t>
-  </si>
-  <si>
-    <t>07 November 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 15 (Off-Campus Drive)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-15-off-campus-drive/</t>
-  </si>
-  <si>
-    <t>Print unique rows in a given Binary matrix</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/print-unique-rows/</t>
-  </si>
-  <si>
-    <t>31 January 2023</t>
-  </si>
-  <si>
-    <t>Zoho Interview | Set 8 (Off-Campus Drive for Project Trainee)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-8-off-campus-drive/</t>
-  </si>
-  <si>
-    <t>Zoho On Campus Drive | Set 24 (Software Developer)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-campus-drive-set-24-software-developer/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 20</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-set-20/</t>
-  </si>
-  <si>
-    <t>Top Zoho Interview Questions - 2024 | Set 1 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-set-1-campus/</t>
-  </si>
-  <si>
-    <t>24 September 2024</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Set 9 (On-Campus)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience/</t>
-  </si>
-  <si>
-    <t>11 May 2020</t>
-  </si>
-  <si>
-    <t>Java Program For Finding Subarray With Given Sum - Set 1 (Nonnegative Numbers)</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-for-finding-subarray-with-given-sum-set-1-nonnegative-numbers/</t>
-  </si>
-  <si>
-    <t>21 December 2021</t>
-  </si>
-  <si>
-    <t>Java Program to Inplace rotate square matrix by 90 degrees | Set 1</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/java-program-to-inplace-rotate-square-matrix-by-90-degrees-set-1/</t>
-  </si>
-  <si>
-    <t>Zoho Interview Experience | Off-Campus 2021</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/zoho-interview-experience-off-campus-2021/</t>
-  </si>
-  <si>
-    <t>21 January 2021</t>
-  </si>
-  <si>
-    <t>Javascript Program For Adding Two Numbers Represented By Linked Lists- Set 2</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/javascript-program-for-adding-two-numbers-represented-by-linked-lists-set-2/</t>
   </si>
   <si>
     <t>Sliding Window Maximum (Maximum of all subarrays of size K)</t>
@@ -2521,40 +2524,40 @@
         <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
@@ -2697,18 +2700,18 @@
         <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>216</v>
+      </c>
+      <c r="B78" t="s">
         <v>217</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>218</v>
-      </c>
-      <c r="C78" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="79">
@@ -2719,18 +2722,18 @@
         <v>220</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>221</v>
+      </c>
+      <c r="B80" t="s">
         <v>222</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>223</v>
-      </c>
-      <c r="C80" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="81">
@@ -2752,23 +2755,23 @@
         <v>228</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" t="s">
         <v>230</v>
-      </c>
-      <c r="B83" t="s">
-        <v>231</v>
-      </c>
-      <c r="C83" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>231</v>
       </c>
       <c r="B84" t="s">
         <v>232</v>
@@ -2796,29 +2799,29 @@
         <v>238</v>
       </c>
       <c r="C86" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>239</v>
+      </c>
+      <c r="B87" t="s">
         <v>240</v>
       </c>
-      <c r="B87" t="s">
-        <v>241</v>
-      </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B88" t="s">
         <v>242</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>243</v>
-      </c>
-      <c r="C88" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="89">
@@ -2840,18 +2843,18 @@
         <v>248</v>
       </c>
       <c r="C90" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>249</v>
+      </c>
+      <c r="B91" t="s">
         <v>250</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>251</v>
-      </c>
-      <c r="C91" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="92">
@@ -3368,7 +3371,7 @@
         <v>378</v>
       </c>
       <c r="C138" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139">
@@ -3511,15 +3514,15 @@
         <v>411</v>
       </c>
       <c r="C151" t="s">
-        <v>184</v>
+        <v>412</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B152" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C152" t="s">
         <v>374</v>
@@ -3527,10 +3530,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B153" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C153" t="s">
         <v>90</v>
@@ -3538,32 +3541,32 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B154" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C154" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B155" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C155" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B156" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -3571,10 +3574,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B157" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C157" t="s">
         <v>38</v>
@@ -3582,54 +3585,54 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B158" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C158" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B159" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C159" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B160" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C160" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B161" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C161" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B162" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C162" t="s">
         <v>134</v>
@@ -3637,32 +3640,32 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B163" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C163" t="s">
-        <v>184</v>
+        <v>412</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B164" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C164" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B165" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -3670,43 +3673,43 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B166" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C166" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B167" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C167" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B168" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C168" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B169" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C169" t="s">
         <v>371</v>
@@ -3714,10 +3717,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B170" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C170" t="s">
         <v>90</v>
@@ -3725,10 +3728,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B171" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C171" t="s">
         <v>90</v>
@@ -3736,54 +3739,54 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B172" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C172" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B173" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C173" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B174" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C174" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B175" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C175" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B176" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C176" t="s">
         <v>126</v>
@@ -3791,21 +3794,21 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B177" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C177" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B178" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C178" t="s">
         <v>404</v>
@@ -3813,10 +3816,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B179" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C179" t="s">
         <v>90</v>
@@ -3824,10 +3827,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B180" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C180" t="s">
         <v>14</v>
@@ -3835,65 +3838,65 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B181" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C181" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B182" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C182" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B183" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C183" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B184" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C184" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B185" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C185" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B186" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C186" t="s">
         <v>207</v>
@@ -3901,10 +3904,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B187" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C187" t="s">
         <v>47</v>
@@ -3912,10 +3915,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B188" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C188" t="s">
         <v>61</v>
@@ -3923,10 +3926,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B189" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C189" t="s">
         <v>123</v>
@@ -3934,76 +3937,76 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B190" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C190" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B191" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C191" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B192" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C192" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B193" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C193" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B194" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C194" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B195" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C195" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B196" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C196" t="s">
         <v>126</v>
@@ -4011,46 +4014,46 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B197" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C197" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B198" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C198" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B199" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C199" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B200" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C200" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="201">
@@ -4058,29 +4061,29 @@
         <v>3</v>
       </c>
       <c r="B201" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C201" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B202" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C202" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B203" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C203" t="s">
         <v>126</v>
@@ -4088,43 +4091,43 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B204" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C204" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B205" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C205" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B206" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C206" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B207" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C207" t="s">
         <v>29</v>
@@ -4132,10 +4135,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B208" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C208" t="s">
         <v>107</v>
@@ -4143,57 +4146,57 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B209" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C209" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B210" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C210" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B211" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C211" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B212" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C212" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B213" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C213" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="214">
@@ -4201,18 +4204,18 @@
         <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C214" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B215" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C215" t="s">
         <v>90</v>
@@ -4220,10 +4223,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B216" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C216" t="s">
         <v>143</v>
@@ -4231,79 +4234,79 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B217" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C217" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B218" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C218" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B219" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C219" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B220" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C220" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B221" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C221" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B222" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C222" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B223" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C223" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/BusBookingUsingExcel/Zoho_Articles.xlsx
+++ b/BusBookingUsingExcel/Zoho_Articles.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Title</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>Created date</t>
+  </si>
+  <si>
+    <t>Page Link</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -81,6 +84,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
